--- a/STP/media/xl_sheets1/selected_one_xl_file.xlsx
+++ b/STP/media/xl_sheets1/selected_one_xl_file.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,78 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Raghav Agarwal</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1999-05-11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ikagarwal99@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>555555555555</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+918755866764</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Merrut</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Himanshu Agarwal</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VIT VELLORE</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>BE/B. Tech CS</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>8.9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
